--- a/analyst/Ines/rmonize/data_proc_elem/DPE_DEGS1_INES.xlsx
+++ b/analyst/Ines/rmonize/data_proc_elem/DPE_DEGS1_INES.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="99">
   <si>
     <t>index</t>
   </si>
@@ -258,15 +258,9 @@
     <t>SODIUM</t>
   </si>
   <si>
-    <t>Sodium intake [g/d]</t>
-  </si>
-  <si>
     <t>SOD_POT_RATIO</t>
   </si>
   <si>
-    <t>Sodium to potassium intake ratio [g/d]</t>
-  </si>
-  <si>
     <t>impossible</t>
   </si>
   <si>
@@ -289,6 +283,39 @@
   </si>
   <si>
     <t>N/A adult participants</t>
+  </si>
+  <si>
+    <t>UStail</t>
+  </si>
+  <si>
+    <t>Ushuef</t>
+  </si>
+  <si>
+    <t>LBhdl</t>
+  </si>
+  <si>
+    <t>LBldl</t>
+  </si>
+  <si>
+    <t>LBchol</t>
+  </si>
+  <si>
+    <t>LBglyc</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>BGS variable available?</t>
+  </si>
+  <si>
+    <t>available?</t>
+  </si>
+  <si>
+    <t>Sodium intake [mg/d]</t>
+  </si>
+  <si>
+    <t>Sodium to potassium intake ratio</t>
   </si>
 </sst>
 </file>
@@ -343,8 +370,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -363,8 +392,10 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="2"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,21 +760,22 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>83</v>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -757,21 +789,22 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>83</v>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -785,21 +818,22 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>83</v>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -813,47 +847,54 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
+      <c r="H6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -867,22 +908,22 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
         <v>86</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -896,19 +937,22 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -922,22 +966,22 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -951,74 +995,86 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
       <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
-        <v>83</v>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1032,19 +1088,22 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
         <v>84</v>
       </c>
-      <c r="G13" t="s">
-        <v>82</v>
-      </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1058,19 +1117,19 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1084,19 +1143,19 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1110,19 +1169,19 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
@@ -1136,19 +1195,19 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="29" x14ac:dyDescent="0.35">
@@ -1162,19 +1221,19 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
@@ -1188,21 +1247,25 @@
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
@@ -1216,21 +1279,25 @@
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G20" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J20" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
@@ -1244,21 +1311,25 @@
         <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G21" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J21" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
@@ -1272,21 +1343,25 @@
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G22" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J22" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
@@ -1300,21 +1375,25 @@
         <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G23" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J23" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
@@ -1328,21 +1407,25 @@
         <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G24" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J24" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
@@ -1356,21 +1439,25 @@
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G25" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J25" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
@@ -1384,21 +1471,25 @@
         <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G26" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J26" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
@@ -1412,21 +1503,25 @@
         <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
@@ -1440,21 +1535,25 @@
         <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G28" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J28" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
@@ -1468,21 +1567,25 @@
         <v>13</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G29" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J29" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
@@ -1496,21 +1599,25 @@
         <v>13</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G30" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J30" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
@@ -1524,21 +1631,25 @@
         <v>13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G31" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J31" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
@@ -1552,21 +1663,25 @@
         <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G32" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J32" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
@@ -1580,21 +1695,25 @@
         <v>13</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G33" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J33" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
@@ -1608,21 +1727,25 @@
         <v>13</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G34" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J34" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
@@ -1630,55 +1753,63 @@
         <v>78</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G35" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J35" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G36" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J36" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
